--- a/REGULAR/MATIENZO, NORMITA.xlsx
+++ b/REGULAR/MATIENZO, NORMITA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\LCR - LOCAL CIVIL REGISTRY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE40D08-1572-4190-AA55-EFCF2C5B45A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="344">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1072,7 +1071,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1945,7 +1944,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1988,7 +1987,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2052,7 +2051,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2112,7 +2111,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2178,7 +2177,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2241,7 +2240,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2339,7 +2338,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2398,7 +2397,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2463,7 +2462,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2506,7 +2505,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2581,7 +2580,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2767,7 +2766,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2833,7 +2832,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2891,7 +2890,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2957,7 +2956,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3013,7 +3012,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3088,7 +3087,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3131,7 +3130,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3197,7 +3196,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3253,7 +3252,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3351,7 +3350,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3414,7 +3413,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3480,25 +3479,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K557" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K557" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3510,12 +3509,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3524,13 +3523,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3834,7 +3833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3844,7 +3843,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3852,34 +3851,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K557"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <pane ySplit="3384" topLeftCell="A513" activePane="bottomLeft"/>
+      <pane ySplit="3390" topLeftCell="A513" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="B520" sqref="B520"/>
+      <selection pane="bottomLeft" activeCell="D531" sqref="D531"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3900,7 +3899,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3920,7 +3919,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3942,7 +3941,7 @@
       <c r="J4" s="58"/>
       <c r="K4" s="59"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3950,7 +3949,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3963,7 +3962,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -3980,7 +3979,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4015,7 +4014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4024,7 +4023,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>129.34599999999995</v>
+        <v>131.84599999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4034,12 +4033,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>152.875</v>
+        <v>155.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>45</v>
       </c>
@@ -4061,7 +4060,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35977</v>
       </c>
@@ -4087,7 +4086,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <f>EDATE(A11,1)</f>
         <v>36008</v>
@@ -4112,7 +4111,7 @@
         <v>36032</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>49</v>
@@ -4132,7 +4131,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <f>EDATE(A12,1)</f>
         <v>36039</v>
@@ -4159,7 +4158,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f t="shared" ref="A15" si="0">EDATE(A14,1)</f>
         <v>36069</v>
@@ -4186,7 +4185,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>65</v>
@@ -4197,7 +4196,7 @@
       </c>
       <c r="E16" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>129.34599999999995</v>
+        <v>131.84599999999995</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="13" t="str">
@@ -4207,12 +4206,12 @@
       <c r="H16" s="39"/>
       <c r="I16" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>152.875</v>
+        <v>155.375</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <f>EDATE(A15,1)</f>
         <v>36100</v>
@@ -4239,7 +4238,7 @@
         <v>36126</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="15" t="s">
         <v>55</v>
@@ -4259,7 +4258,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="49"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <f>EDATE(A17,1)</f>
         <v>36130</v>
@@ -4280,7 +4279,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="47" t="s">
         <v>56</v>
       </c>
@@ -4298,7 +4297,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="15"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <f>EDATE(A19,1)</f>
         <v>36161</v>
@@ -4325,7 +4324,7 @@
         <v>36185</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <f t="shared" ref="A22:A117" si="1">EDATE(A21,1)</f>
         <v>36192</v>
@@ -4352,7 +4351,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>68</v>
@@ -4372,7 +4371,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <f>EDATE(A22,1)</f>
         <v>36220</v>
@@ -4397,7 +4396,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <f t="shared" si="1"/>
         <v>36251</v>
@@ -4424,7 +4423,7 @@
         <v>36263</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>48</v>
@@ -4446,7 +4445,7 @@
         <v>36269</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>70</v>
@@ -4466,7 +4465,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f>EDATE(A25,1)</f>
         <v>36281</v>
@@ -4493,7 +4492,7 @@
         <v>36292</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f>EDATE(A28,1)</f>
         <v>36312</v>
@@ -4520,7 +4519,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f t="shared" si="1"/>
         <v>36342</v>
@@ -4547,7 +4546,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f t="shared" si="1"/>
         <v>36373</v>
@@ -4568,7 +4567,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <f t="shared" si="1"/>
         <v>36404</v>
@@ -4593,7 +4592,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f t="shared" si="1"/>
         <v>36434</v>
@@ -4618,7 +4617,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <f t="shared" si="1"/>
         <v>36465</v>
@@ -4645,7 +4644,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f t="shared" si="1"/>
         <v>36495</v>
@@ -4670,7 +4669,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="47" t="s">
         <v>57</v>
       </c>
@@ -4688,7 +4687,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <f>EDATE(A35,1)</f>
         <v>36526</v>
@@ -4715,7 +4714,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>46</v>
@@ -4735,7 +4734,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>82</v>
@@ -4755,7 +4754,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f>EDATE(A37,1)</f>
         <v>36557</v>
@@ -4782,7 +4781,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>85</v>
@@ -4802,7 +4801,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f>EDATE(A40,1)</f>
         <v>36586</v>
@@ -4829,7 +4828,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>87</v>
@@ -4849,7 +4848,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f>EDATE(A42,1)</f>
         <v>36617</v>
@@ -4874,7 +4873,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <f t="shared" si="1"/>
         <v>36647</v>
@@ -4899,7 +4898,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <f t="shared" si="1"/>
         <v>36678</v>
@@ -4920,7 +4919,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <f t="shared" si="1"/>
         <v>36708</v>
@@ -4947,7 +4946,7 @@
         <v>36721</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>90</v>
@@ -4967,7 +4966,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="48"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <f>EDATE(A47,1)</f>
         <v>36739</v>
@@ -4994,7 +4993,7 @@
         <v>36745</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>91</v>
@@ -5016,7 +5015,7 @@
         <v>36766</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>92</v>
@@ -5036,7 +5035,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="48"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f>EDATE(A49,1)</f>
         <v>36770</v>
@@ -5057,7 +5056,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <f t="shared" si="1"/>
         <v>36800</v>
@@ -5084,7 +5083,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>52</v>
@@ -5106,7 +5105,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>82</v>
@@ -5126,7 +5125,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <f>EDATE(A53,1)</f>
         <v>36831</v>
@@ -5151,7 +5150,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <f t="shared" si="1"/>
         <v>36861</v>
@@ -5176,7 +5175,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="47" t="s">
         <v>58</v>
       </c>
@@ -5194,7 +5193,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f>EDATE(A57,1)</f>
         <v>36892</v>
@@ -5221,7 +5220,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>77</v>
@@ -5243,7 +5242,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <f>EDATE(A59,1)</f>
         <v>36923</v>
@@ -5270,7 +5269,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <f t="shared" si="1"/>
         <v>36951</v>
@@ -5297,7 +5296,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <f t="shared" si="1"/>
         <v>36982</v>
@@ -5318,7 +5317,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <f t="shared" si="1"/>
         <v>37012</v>
@@ -5345,7 +5344,7 @@
         <v>37019</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <f t="shared" si="1"/>
         <v>37043</v>
@@ -5366,7 +5365,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <f t="shared" si="1"/>
         <v>37073</v>
@@ -5393,7 +5392,7 @@
         <v>37074</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>48</v>
@@ -5415,7 +5414,7 @@
         <v>37088</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>83</v>
@@ -5437,7 +5436,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <f>EDATE(A66,1)</f>
         <v>37104</v>
@@ -5464,7 +5463,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <f t="shared" si="1"/>
         <v>37135</v>
@@ -5485,7 +5484,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <f t="shared" si="1"/>
         <v>37165</v>
@@ -5512,7 +5511,7 @@
         <v>37181</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <f t="shared" si="1"/>
         <v>37196</v>
@@ -5533,7 +5532,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <f t="shared" si="1"/>
         <v>37226</v>
@@ -5554,7 +5553,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="47" t="s">
         <v>59</v>
       </c>
@@ -5572,7 +5571,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <f>EDATE(A73,1)</f>
         <v>37257</v>
@@ -5599,7 +5598,7 @@
         <v>37260</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>48</v>
@@ -5621,7 +5620,7 @@
         <v>37271</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>50</v>
@@ -5643,7 +5642,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <f>EDATE(A75,1)</f>
         <v>37288</v>
@@ -5670,7 +5669,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <f t="shared" si="1"/>
         <v>37316</v>
@@ -5697,7 +5696,7 @@
         <v>37328</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>77</v>
@@ -5719,7 +5718,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f>EDATE(A79,1)</f>
         <v>37347</v>
@@ -5746,7 +5745,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <f t="shared" si="1"/>
         <v>37377</v>
@@ -5773,7 +5772,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>87</v>
@@ -5793,7 +5792,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <f>EDATE(A82,1)</f>
         <v>37408</v>
@@ -5820,7 +5819,7 @@
         <v>37424</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f t="shared" si="1"/>
         <v>37438</v>
@@ -5847,7 +5846,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f t="shared" si="1"/>
         <v>37469</v>
@@ -5874,7 +5873,7 @@
         <v>37470</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <f t="shared" si="1"/>
         <v>37500</v>
@@ -5901,7 +5900,7 @@
         <v>37519</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>48</v>
@@ -5923,7 +5922,7 @@
         <v>37515</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f>EDATE(A87,1)</f>
         <v>37530</v>
@@ -5950,7 +5949,7 @@
         <v>37537</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>77</v>
@@ -5972,7 +5971,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <f>EDATE(A89,1)</f>
         <v>37561</v>
@@ -5999,7 +5998,7 @@
         <v>37567</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f t="shared" si="1"/>
         <v>37591</v>
@@ -6026,7 +6025,7 @@
         <v>37593</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>91</v>
@@ -6048,7 +6047,7 @@
         <v>37610</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>48</v>
@@ -6070,7 +6069,7 @@
         <v>37601</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="47" t="s">
         <v>60</v>
       </c>
@@ -6088,7 +6087,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f>EDATE(A92,1)</f>
         <v>37622</v>
@@ -6115,7 +6114,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f t="shared" si="1"/>
         <v>37653</v>
@@ -6142,7 +6141,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f t="shared" si="1"/>
         <v>37681</v>
@@ -6167,7 +6166,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>66</v>
@@ -6189,7 +6188,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f>EDATE(A98,1)</f>
         <v>37712</v>
@@ -6210,7 +6209,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <f t="shared" si="1"/>
         <v>37742</v>
@@ -6231,7 +6230,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <f t="shared" si="1"/>
         <v>37773</v>
@@ -6258,7 +6257,7 @@
         <v>37789</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f t="shared" si="1"/>
         <v>37803</v>
@@ -6285,7 +6284,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f t="shared" si="1"/>
         <v>37834</v>
@@ -6312,7 +6311,7 @@
         <v>37862</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <f t="shared" si="1"/>
         <v>37865</v>
@@ -6337,7 +6336,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <f t="shared" si="1"/>
         <v>37895</v>
@@ -6360,7 +6359,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>117</v>
@@ -6380,7 +6379,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <f>EDATE(A106,1)</f>
         <v>37926</v>
@@ -6405,7 +6404,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <f t="shared" si="1"/>
         <v>37956</v>
@@ -6432,7 +6431,7 @@
         <v>37972</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>77</v>
@@ -6454,7 +6453,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>119</v>
@@ -6474,7 +6473,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="47" t="s">
         <v>61</v>
       </c>
@@ -6492,7 +6491,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f>EDATE(A109,1)</f>
         <v>37987</v>
@@ -6519,7 +6518,7 @@
         <v>37999</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>66</v>
@@ -6541,7 +6540,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>121</v>
@@ -6561,7 +6560,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <f>EDATE(A113,1)</f>
         <v>38018</v>
@@ -6586,7 +6585,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f t="shared" si="1"/>
         <v>38047</v>
@@ -6613,7 +6612,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>48</v>
@@ -6635,7 +6634,7 @@
         <v>38071</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
         <v>123</v>
@@ -6655,7 +6654,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f>EDATE(A117,1)</f>
         <v>38078</v>
@@ -6682,7 +6681,7 @@
         <v>38092</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>91</v>
@@ -6704,7 +6703,7 @@
         <v>38106</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>124</v>
@@ -6724,7 +6723,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <f>EDATE(A120,1)</f>
         <v>38108</v>
@@ -6749,7 +6748,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f t="shared" ref="A124:A213" si="2">EDATE(A123,1)</f>
         <v>38139</v>
@@ -6776,7 +6775,7 @@
         <v>38160</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>48</v>
@@ -6798,7 +6797,7 @@
         <v>38163</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>128</v>
@@ -6818,7 +6817,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <f>EDATE(A124,1)</f>
         <v>38169</v>
@@ -6845,7 +6844,7 @@
         <v>38182</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>52</v>
@@ -6867,7 +6866,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>48</v>
@@ -6889,7 +6888,7 @@
         <v>38188</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>77</v>
@@ -6911,7 +6910,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>90</v>
@@ -6931,7 +6930,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f>EDATE(A127,1)</f>
         <v>38200</v>
@@ -6958,7 +6957,7 @@
         <v>38215</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>77</v>
@@ -6980,7 +6979,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>132</v>
@@ -7000,7 +6999,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <f>EDATE(A132,1)</f>
         <v>38231</v>
@@ -7027,7 +7026,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>48</v>
@@ -7049,7 +7048,7 @@
         <v>38257</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>135</v>
@@ -7069,7 +7068,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="48"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>50</v>
@@ -7091,7 +7090,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <f>EDATE(A135,1)</f>
         <v>38261</v>
@@ -7118,7 +7117,7 @@
         <v>38289</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>136</v>
@@ -7138,7 +7137,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <f>EDATE(A139,1)</f>
         <v>38292</v>
@@ -7165,7 +7164,7 @@
         <v>38296</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>48</v>
@@ -7187,7 +7186,7 @@
         <v>38317</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>137</v>
@@ -7207,7 +7206,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f>EDATE(A141,1)</f>
         <v>38322</v>
@@ -7234,7 +7233,7 @@
         <v>38327</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>50</v>
@@ -7256,7 +7255,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>138</v>
@@ -7276,7 +7275,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="47" t="s">
         <v>62</v>
       </c>
@@ -7294,7 +7293,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f>EDATE(A144,1)</f>
         <v>38353</v>
@@ -7321,7 +7320,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>48</v>
@@ -7343,7 +7342,7 @@
         <v>38380</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>48</v>
@@ -7365,7 +7364,7 @@
         <v>38376</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>141</v>
@@ -7385,7 +7384,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="48"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <f>EDATE(A148,1)</f>
         <v>38384</v>
@@ -7412,7 +7411,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <f t="shared" si="2"/>
         <v>38412</v>
@@ -7439,7 +7438,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>146</v>
@@ -7461,7 +7460,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>148</v>
@@ -7483,7 +7482,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <f>EDATE(A153,1)</f>
         <v>38443</v>
@@ -7508,7 +7507,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>151</v>
@@ -7528,7 +7527,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>152</v>
@@ -7548,7 +7547,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <f>EDATE(A156,1)</f>
         <v>38473</v>
@@ -7573,7 +7572,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <f t="shared" si="2"/>
         <v>38504</v>
@@ -7600,7 +7599,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>155</v>
@@ -7620,7 +7619,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <f>EDATE(A160,1)</f>
         <v>38534</v>
@@ -7647,7 +7646,7 @@
         <v>38552</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>48</v>
@@ -7669,7 +7668,7 @@
         <v>38558</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>48</v>
@@ -7691,7 +7690,7 @@
         <v>38559</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>156</v>
@@ -7711,7 +7710,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="48"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <f>EDATE(A162,1)</f>
         <v>38565</v>
@@ -7738,7 +7737,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>158</v>
@@ -7760,7 +7759,7 @@
         <v>38582</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>48</v>
@@ -7782,7 +7781,7 @@
         <v>38594</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>159</v>
@@ -7802,7 +7801,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <f>EDATE(A166,1)</f>
         <v>38596</v>
@@ -7829,7 +7828,7 @@
         <v>38610</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>77</v>
@@ -7851,7 +7850,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>158</v>
@@ -7873,7 +7872,7 @@
         <v>38629</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>160</v>
@@ -7893,7 +7892,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="48"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <f>EDATE(A170,1)</f>
         <v>38626</v>
@@ -7918,7 +7917,7 @@
         <v>38639</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>162</v>
@@ -7938,7 +7937,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <f>EDATE(A174,1)</f>
         <v>38657</v>
@@ -7963,7 +7962,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <f t="shared" si="2"/>
         <v>38687</v>
@@ -7990,7 +7989,7 @@
         <v>38691</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>164</v>
@@ -8010,7 +8009,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="47" t="s">
         <v>63</v>
       </c>
@@ -8028,7 +8027,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <f>EDATE(A177,1)</f>
         <v>38718</v>
@@ -8055,7 +8054,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>48</v>
@@ -8077,7 +8076,7 @@
         <v>38743</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>166</v>
@@ -8097,7 +8096,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f>EDATE(A180,1)</f>
         <v>38749</v>
@@ -8124,7 +8123,7 @@
         <v>38761</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>48</v>
@@ -8146,7 +8145,7 @@
         <v>38771</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>48</v>
@@ -8168,7 +8167,7 @@
         <v>38776</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>168</v>
@@ -8188,7 +8187,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="48"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <f>EDATE(A183,1)</f>
         <v>38777</v>
@@ -8215,7 +8214,7 @@
         <v>38785</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>87</v>
@@ -8235,7 +8234,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>169</v>
@@ -8255,7 +8254,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <f>EDATE(A187,1)</f>
         <v>38808</v>
@@ -8282,7 +8281,7 @@
         <v>38842</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>87</v>
@@ -8302,7 +8301,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>87</v>
@@ -8322,7 +8321,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>171</v>
@@ -8342,7 +8341,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <f>EDATE(A190,1)</f>
         <v>38838</v>
@@ -8367,7 +8366,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <f t="shared" si="2"/>
         <v>38869</v>
@@ -8394,7 +8393,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>176</v>
@@ -8414,7 +8413,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <f>EDATE(A195,1)</f>
         <v>38899</v>
@@ -8441,7 +8440,7 @@
         <v>38909</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>48</v>
@@ -8463,7 +8462,7 @@
         <v>38911</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>177</v>
@@ -8483,7 +8482,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <f>EDATE(A197,1)</f>
         <v>38930</v>
@@ -8508,7 +8507,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <f t="shared" si="2"/>
         <v>38961</v>
@@ -8535,7 +8534,7 @@
         <v>38987</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>179</v>
@@ -8555,7 +8554,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <f>EDATE(A201,1)</f>
         <v>38991</v>
@@ -8582,7 +8581,7 @@
         <v>38999</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>48</v>
@@ -8604,7 +8603,7 @@
         <v>39023</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>180</v>
@@ -8624,7 +8623,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <f>EDATE(A203,1)</f>
         <v>39022</v>
@@ -8651,7 +8650,7 @@
         <v>39037</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>48</v>
@@ -8673,7 +8672,7 @@
         <v>39042</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>48</v>
@@ -8695,7 +8694,7 @@
         <v>39066</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>181</v>
@@ -8715,7 +8714,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="48"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <f>EDATE(A206,1)</f>
         <v>39052</v>
@@ -8740,7 +8739,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="47" t="s">
         <v>64</v>
       </c>
@@ -8758,7 +8757,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <f>EDATE(A210,1)</f>
         <v>39083</v>
@@ -8783,7 +8782,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <f t="shared" si="2"/>
         <v>39114</v>
@@ -8810,7 +8809,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>184</v>
@@ -8828,12 +8827,12 @@
       <c r="H214" s="39"/>
       <c r="I214" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>152.875</v>
+        <v>155.375</v>
       </c>
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <f>EDATE(A213,1)</f>
         <v>39142</v>
@@ -8860,7 +8859,7 @@
         <v>39171</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>87</v>
@@ -8880,7 +8879,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>186</v>
@@ -8900,7 +8899,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <f>EDATE(A215,1)</f>
         <v>39173</v>
@@ -8925,7 +8924,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <f t="shared" ref="A219:A318" si="3">EDATE(A218,1)</f>
         <v>39203</v>
@@ -8950,7 +8949,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f t="shared" si="3"/>
         <v>39234</v>
@@ -8977,7 +8976,7 @@
         <v>39260</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>48</v>
@@ -8999,7 +8998,7 @@
         <v>39262</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>190</v>
@@ -9019,7 +9018,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <f>EDATE(A220,1)</f>
         <v>39264</v>
@@ -9044,7 +9043,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <f t="shared" si="3"/>
         <v>39295</v>
@@ -9069,7 +9068,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <f t="shared" si="3"/>
         <v>39326</v>
@@ -9094,7 +9093,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <f t="shared" si="3"/>
         <v>39356</v>
@@ -9119,7 +9118,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <f t="shared" si="3"/>
         <v>39387</v>
@@ -9144,7 +9143,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <f t="shared" si="3"/>
         <v>39417</v>
@@ -9169,7 +9168,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>196</v>
@@ -9189,7 +9188,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="47" t="s">
         <v>197</v>
       </c>
@@ -9207,7 +9206,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <f>EDATE(A228,1)</f>
         <v>39448</v>
@@ -9234,7 +9233,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>181</v>
@@ -9254,7 +9253,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <f>EDATE(A231,1)</f>
         <v>39479</v>
@@ -9281,7 +9280,7 @@
         <v>39497</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>213</v>
@@ -9301,7 +9300,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="48"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <f>EDATE(A233,1)</f>
         <v>39508</v>
@@ -9326,7 +9325,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <f t="shared" si="3"/>
         <v>39539</v>
@@ -9351,7 +9350,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <f t="shared" si="3"/>
         <v>39569</v>
@@ -9376,7 +9375,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <f t="shared" si="3"/>
         <v>39600</v>
@@ -9403,7 +9402,7 @@
         <v>39610</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="15" t="s">
         <v>218</v>
@@ -9423,7 +9422,7 @@
       <c r="J239" s="12"/>
       <c r="K239" s="49"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <f>EDATE(A238,1)</f>
         <v>39630</v>
@@ -9448,7 +9447,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <f t="shared" si="3"/>
         <v>39661</v>
@@ -9469,7 +9468,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <f t="shared" si="3"/>
         <v>39692</v>
@@ -9494,7 +9493,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <f t="shared" si="3"/>
         <v>39722</v>
@@ -9521,7 +9520,7 @@
         <v>39738</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>222</v>
@@ -9541,7 +9540,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <f>EDATE(A243,1)</f>
         <v>39753</v>
@@ -9568,7 +9567,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>151</v>
@@ -9588,7 +9587,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>90</v>
@@ -9608,7 +9607,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <f>EDATE(A245,1)</f>
         <v>39783</v>
@@ -9633,7 +9632,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="47" t="s">
         <v>198</v>
       </c>
@@ -9651,7 +9650,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <f>EDATE(A248,1)</f>
         <v>39814</v>
@@ -9678,7 +9677,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>90</v>
@@ -9698,7 +9697,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <f>EDATE(A250,1)</f>
         <v>39845</v>
@@ -9723,7 +9722,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <f t="shared" si="3"/>
         <v>39873</v>
@@ -9748,7 +9747,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>79</v>
@@ -9768,7 +9767,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <f>EDATE(A253,1)</f>
         <v>39904</v>
@@ -9795,7 +9794,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>48</v>
@@ -9817,7 +9816,7 @@
         <v>39920</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <f>EDATE(A255,1)</f>
         <v>39934</v>
@@ -9838,7 +9837,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <f t="shared" si="3"/>
         <v>39965</v>
@@ -9859,7 +9858,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <f t="shared" si="3"/>
         <v>39995</v>
@@ -9880,7 +9879,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f t="shared" si="3"/>
         <v>40026</v>
@@ -9901,7 +9900,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <f t="shared" si="3"/>
         <v>40057</v>
@@ -9922,7 +9921,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <f t="shared" si="3"/>
         <v>40087</v>
@@ -9943,7 +9942,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <f t="shared" si="3"/>
         <v>40118</v>
@@ -9964,7 +9963,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <f t="shared" si="3"/>
         <v>40148</v>
@@ -9985,7 +9984,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="47" t="s">
         <v>199</v>
       </c>
@@ -10003,7 +10002,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <f>EDATE(A264,1)</f>
         <v>40179</v>
@@ -10024,7 +10023,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <f t="shared" si="3"/>
         <v>40210</v>
@@ -10051,7 +10050,7 @@
         <v>40224</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>48</v>
@@ -10073,7 +10072,7 @@
         <v>40221</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <f>EDATE(A267,1)</f>
         <v>40238</v>
@@ -10094,7 +10093,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <f t="shared" si="3"/>
         <v>40269</v>
@@ -10121,7 +10120,7 @@
         <v>40297</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <f>EDATE(A270,1)</f>
         <v>40299</v>
@@ -10146,7 +10145,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>48</v>
@@ -10168,7 +10167,7 @@
         <v>40312</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>87</v>
@@ -10188,7 +10187,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <f>EDATE(A271,1)</f>
         <v>40330</v>
@@ -10215,7 +10214,7 @@
         <v>40357</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <f t="shared" si="3"/>
         <v>40360</v>
@@ -10242,7 +10241,7 @@
         <v>40385</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <f t="shared" si="3"/>
         <v>40391</v>
@@ -10263,7 +10262,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <f t="shared" si="3"/>
         <v>40422</v>
@@ -10288,7 +10287,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <f t="shared" si="3"/>
         <v>40452</v>
@@ -10315,7 +10314,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>236</v>
@@ -10335,7 +10334,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <f>EDATE(A278,1)</f>
         <v>40483</v>
@@ -10360,7 +10359,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <f t="shared" si="3"/>
         <v>40513</v>
@@ -10387,7 +10386,7 @@
         <v>40513</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>158</v>
@@ -10409,7 +10408,7 @@
         <v>40529</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>77</v>
@@ -10431,7 +10430,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="47" t="s">
         <v>200</v>
       </c>
@@ -10449,7 +10448,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <f>EDATE(A281,1)</f>
         <v>40544</v>
@@ -10474,7 +10473,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>48</v>
@@ -10496,7 +10495,7 @@
         <v>40556</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>233</v>
@@ -10516,7 +10515,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <f>EDATE(A285,1)</f>
         <v>40575</v>
@@ -10543,7 +10542,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>48</v>
@@ -10565,7 +10564,7 @@
         <v>40575</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>48</v>
@@ -10587,7 +10586,7 @@
         <v>40589</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <f>EDATE(A288,1)</f>
         <v>40603</v>
@@ -10612,7 +10611,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>240</v>
@@ -10632,7 +10631,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <f>EDATE(A291,1)</f>
         <v>40634</v>
@@ -10657,7 +10656,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>243</v>
@@ -10677,7 +10676,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <f>EDATE(A293,1)</f>
         <v>40664</v>
@@ -10704,7 +10703,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>223</v>
@@ -10726,7 +10725,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>244</v>
@@ -10746,7 +10745,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <f>EDATE(A295,1)</f>
         <v>40695</v>
@@ -10771,7 +10770,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <f>EDATE(A298,1)</f>
         <v>40725</v>
@@ -10798,7 +10797,7 @@
         <v>40735</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>248</v>
@@ -10818,7 +10817,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <f>EDATE(A299,1)</f>
         <v>40756</v>
@@ -10843,7 +10842,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <f t="shared" si="3"/>
         <v>40787</v>
@@ -10870,7 +10869,7 @@
         <v>40800</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>48</v>
@@ -10892,7 +10891,7 @@
         <v>40788</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>240</v>
@@ -10912,7 +10911,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <f>EDATE(A302,1)</f>
         <v>40817</v>
@@ -10939,7 +10938,7 @@
         <v>40826</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>158</v>
@@ -10961,7 +10960,7 @@
         <v>40833</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>48</v>
@@ -10983,7 +10982,7 @@
         <v>40842</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>250</v>
@@ -11003,7 +11002,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <f>EDATE(A305,1)</f>
         <v>40848</v>
@@ -11028,7 +11027,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <f t="shared" si="3"/>
         <v>40878</v>
@@ -11053,7 +11052,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="47" t="s">
         <v>201</v>
       </c>
@@ -11071,7 +11070,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <f>EDATE(A310,1)</f>
         <v>40909</v>
@@ -11098,7 +11097,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>158</v>
@@ -11120,7 +11119,7 @@
         <v>40949</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>223</v>
@@ -11142,7 +11141,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>253</v>
@@ -11162,7 +11161,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <f>EDATE(A312,1)</f>
         <v>40940</v>
@@ -11183,7 +11182,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <f t="shared" si="3"/>
         <v>40969</v>
@@ -11210,7 +11209,7 @@
         <v>40996</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <f t="shared" si="3"/>
         <v>41000</v>
@@ -11231,7 +11230,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <f t="shared" ref="A319:A433" si="4">EDATE(A318,1)</f>
         <v>41030</v>
@@ -11258,7 +11257,7 @@
         <v>41047</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>48</v>
@@ -11280,7 +11279,7 @@
         <v>41064</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <f>EDATE(A319,1)</f>
         <v>41061</v>
@@ -11307,7 +11306,7 @@
         <v>41073</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f t="shared" si="4"/>
         <v>41091</v>
@@ -11328,7 +11327,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <f t="shared" si="4"/>
         <v>41122</v>
@@ -11349,7 +11348,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <f t="shared" si="4"/>
         <v>41153</v>
@@ -11376,7 +11375,7 @@
         <v>41169</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <f t="shared" si="4"/>
         <v>41183</v>
@@ -11401,7 +11400,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <f t="shared" si="4"/>
         <v>41214</v>
@@ -11422,7 +11421,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <f t="shared" si="4"/>
         <v>41244</v>
@@ -11449,7 +11448,7 @@
         <v>41257</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="47" t="s">
         <v>202</v>
       </c>
@@ -11467,7 +11466,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <f>EDATE(A327,1)</f>
         <v>41275</v>
@@ -11492,7 +11491,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <f t="shared" si="4"/>
         <v>41306</v>
@@ -11519,7 +11518,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>257</v>
@@ -11541,7 +11540,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <f>EDATE(A330,1)</f>
         <v>41334</v>
@@ -11568,7 +11567,7 @@
         <v>41334</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>48</v>
@@ -11590,7 +11589,7 @@
         <v>41344</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>87</v>
@@ -11610,7 +11609,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>87</v>
@@ -11630,7 +11629,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <f>EDATE(A332,1)</f>
         <v>41365</v>
@@ -11655,7 +11654,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <f t="shared" si="4"/>
         <v>41395</v>
@@ -11682,7 +11681,7 @@
         <v>41400</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <f t="shared" si="4"/>
         <v>41426</v>
@@ -11709,7 +11708,7 @@
         <v>41429</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <f t="shared" si="4"/>
         <v>41456</v>
@@ -11734,7 +11733,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <f t="shared" si="4"/>
         <v>41487</v>
@@ -11759,7 +11758,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <f t="shared" si="4"/>
         <v>41518</v>
@@ -11786,7 +11785,7 @@
         <v>41535</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>48</v>
@@ -11808,7 +11807,7 @@
         <v>41543</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>77</v>
@@ -11830,7 +11829,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>169</v>
@@ -11850,7 +11849,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <f>EDATE(A341,1)</f>
         <v>41548</v>
@@ -11875,7 +11874,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <f t="shared" si="4"/>
         <v>41579</v>
@@ -11900,7 +11899,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <f t="shared" si="4"/>
         <v>41609</v>
@@ -11927,7 +11926,7 @@
         <v>41626</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>267</v>
@@ -11947,7 +11946,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="47" t="s">
         <v>203</v>
       </c>
@@ -11965,7 +11964,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <f>EDATE(A347,1)</f>
         <v>41640</v>
@@ -11992,7 +11991,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>268</v>
@@ -12012,7 +12011,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <f>EDATE(A350,1)</f>
         <v>41671</v>
@@ -12037,7 +12036,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <f t="shared" si="4"/>
         <v>41699</v>
@@ -12062,7 +12061,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>272</v>
@@ -12082,7 +12081,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <f>EDATE(A353,1)</f>
         <v>41730</v>
@@ -12109,7 +12108,7 @@
         <v>41759</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>273</v>
@@ -12129,7 +12128,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <f>EDATE(A355,1)</f>
         <v>41760</v>
@@ -12156,7 +12155,7 @@
         <v>41781</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>87</v>
@@ -12176,7 +12175,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>48</v>
@@ -12198,7 +12197,7 @@
         <v>41778</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>48</v>
@@ -12220,7 +12219,7 @@
         <v>41793</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>274</v>
@@ -12240,7 +12239,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <f>EDATE(A357,1)</f>
         <v>41791</v>
@@ -12267,7 +12266,7 @@
         <v>41808</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>276</v>
@@ -12287,7 +12286,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <f>EDATE(A362,1)</f>
         <v>41821</v>
@@ -12312,7 +12311,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <f t="shared" si="4"/>
         <v>41852</v>
@@ -12337,7 +12336,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <f t="shared" si="4"/>
         <v>41883</v>
@@ -12362,7 +12361,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <f t="shared" si="4"/>
         <v>41913</v>
@@ -12387,7 +12386,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <f t="shared" si="4"/>
         <v>41944</v>
@@ -12414,7 +12413,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>282</v>
@@ -12434,7 +12433,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <f>EDATE(A368,1)</f>
         <v>41974</v>
@@ -12459,7 +12458,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="47" t="s">
         <v>204</v>
       </c>
@@ -12477,7 +12476,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <f>EDATE(A370,1)</f>
         <v>42005</v>
@@ -12502,7 +12501,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>285</v>
@@ -12522,7 +12521,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <f>EDATE(A372,1)</f>
         <v>42036</v>
@@ -12547,7 +12546,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <f t="shared" si="4"/>
         <v>42064</v>
@@ -12574,7 +12573,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>287</v>
@@ -12594,7 +12593,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <f>EDATE(A375,1)</f>
         <v>42095</v>
@@ -12621,7 +12620,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>289</v>
@@ -12641,7 +12640,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <f>EDATE(A377,1)</f>
         <v>42125</v>
@@ -12666,7 +12665,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>48</v>
@@ -12688,7 +12687,7 @@
         <v>42146</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>48</v>
@@ -12710,7 +12709,7 @@
         <v>42151</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>48</v>
@@ -12732,7 +12731,7 @@
         <v>42153</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>291</v>
@@ -12752,7 +12751,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <f>EDATE(A379,1)</f>
         <v>42156</v>
@@ -12779,7 +12778,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>293</v>
@@ -12799,7 +12798,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <f>EDATE(A384,1)</f>
         <v>42186</v>
@@ -12824,7 +12823,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <f t="shared" si="4"/>
         <v>42217</v>
@@ -12849,7 +12848,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <f t="shared" si="4"/>
         <v>42248</v>
@@ -12874,7 +12873,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <f t="shared" si="4"/>
         <v>42278</v>
@@ -12899,7 +12898,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <f t="shared" si="4"/>
         <v>42309</v>
@@ -12924,7 +12923,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>48</v>
@@ -12944,7 +12943,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>278</v>
@@ -12964,7 +12963,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <f>EDATE(A390,1)</f>
         <v>42339</v>
@@ -12989,7 +12988,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>216</v>
@@ -13009,7 +13008,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="47" t="s">
         <v>205</v>
       </c>
@@ -13027,7 +13026,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <f>EDATE(A393,1)</f>
         <v>42370</v>
@@ -13054,7 +13053,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>301</v>
@@ -13074,7 +13073,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <f>EDATE(A396,1)</f>
         <v>42401</v>
@@ -13101,7 +13100,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>303</v>
@@ -13121,7 +13120,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <f>EDATE(A398,1)</f>
         <v>42430</v>
@@ -13148,7 +13147,7 @@
         <v>42433</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>48</v>
@@ -13170,7 +13169,7 @@
         <v>42437</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>91</v>
@@ -13192,7 +13191,7 @@
         <v>42457</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>304</v>
@@ -13212,7 +13211,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <f>EDATE(A400,1)</f>
         <v>42461</v>
@@ -13239,7 +13238,7 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>91</v>
@@ -13261,7 +13260,7 @@
         <v>42488</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>50</v>
@@ -13283,7 +13282,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>91</v>
@@ -13305,7 +13304,7 @@
         <v>42508</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>306</v>
@@ -13325,7 +13324,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="48"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <f>EDATE(A404,1)</f>
         <v>42491</v>
@@ -13350,7 +13349,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <f t="shared" si="4"/>
         <v>42522</v>
@@ -13377,7 +13376,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>46</v>
@@ -13399,7 +13398,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>48</v>
@@ -13421,7 +13420,7 @@
         <v>42550</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
         <v>221</v>
@@ -13441,7 +13440,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <f>EDATE(A410,1)</f>
         <v>42552</v>
@@ -13466,7 +13465,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <f t="shared" si="4"/>
         <v>42583</v>
@@ -13491,7 +13490,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <f t="shared" si="4"/>
         <v>42614</v>
@@ -13516,7 +13515,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <f t="shared" si="4"/>
         <v>42644</v>
@@ -13541,7 +13540,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <f t="shared" si="4"/>
         <v>42675</v>
@@ -13566,7 +13565,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <f t="shared" si="4"/>
         <v>42705</v>
@@ -13593,7 +13592,7 @@
         <v>42725</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>48</v>
@@ -13615,7 +13614,7 @@
         <v>42727</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="20" t="s">
         <v>48</v>
@@ -13637,7 +13636,7 @@
         <v>42733</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>312</v>
@@ -13657,7 +13656,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="47" t="s">
         <v>206</v>
       </c>
@@ -13675,7 +13674,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <f>EDATE(A419,1)</f>
         <v>42736</v>
@@ -13700,7 +13699,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <f t="shared" si="4"/>
         <v>42767</v>
@@ -13727,7 +13726,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>171</v>
@@ -13747,7 +13746,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <f>EDATE(A425,1)</f>
         <v>42795</v>
@@ -13772,7 +13771,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <f t="shared" si="4"/>
         <v>42826</v>
@@ -13799,7 +13798,7 @@
         <v>42830</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>87</v>
@@ -13819,7 +13818,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>233</v>
@@ -13839,7 +13838,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <f>EDATE(A428,1)</f>
         <v>42856</v>
@@ -13860,7 +13859,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <f t="shared" si="4"/>
         <v>42887</v>
@@ -13885,7 +13884,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <f t="shared" si="4"/>
         <v>42917</v>
@@ -13912,7 +13911,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>48</v>
@@ -13934,7 +13933,7 @@
         <v>42957</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>48</v>
@@ -13956,7 +13955,7 @@
         <v>42955</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>318</v>
@@ -13976,7 +13975,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <f>EDATE(A433,1)</f>
         <v>42948</v>
@@ -14001,7 +14000,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <f t="shared" ref="A438:A509" si="5">EDATE(A437,1)</f>
         <v>42979</v>
@@ -14026,7 +14025,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <f t="shared" si="5"/>
         <v>43009</v>
@@ -14053,7 +14052,7 @@
         <v>43026</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>321</v>
@@ -14073,7 +14072,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <f>EDATE(A439,1)</f>
         <v>43040</v>
@@ -14094,7 +14093,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <f t="shared" si="5"/>
         <v>43070</v>
@@ -14121,7 +14120,7 @@
         <v>43074</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>50</v>
@@ -14143,7 +14142,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>50</v>
@@ -14165,7 +14164,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>48</v>
@@ -14187,7 +14186,7 @@
         <v>43081</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>48</v>
@@ -14209,7 +14208,7 @@
         <v>43096</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="47" t="s">
         <v>207</v>
       </c>
@@ -14227,7 +14226,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <f>EDATE(A442,1)</f>
         <v>43101</v>
@@ -14254,7 +14253,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <f t="shared" si="5"/>
         <v>43132</v>
@@ -14281,7 +14280,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
         <v>48</v>
@@ -14303,7 +14302,7 @@
         <v>42788</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <f>EDATE(A449,1)</f>
         <v>43160</v>
@@ -14324,7 +14323,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <f t="shared" si="5"/>
         <v>43191</v>
@@ -14345,7 +14344,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <f t="shared" si="5"/>
         <v>43221</v>
@@ -14372,7 +14371,7 @@
         <v>42873</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <f t="shared" si="5"/>
         <v>43252</v>
@@ -14393,7 +14392,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <f t="shared" si="5"/>
         <v>43282</v>
@@ -14414,7 +14413,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <f t="shared" si="5"/>
         <v>43313</v>
@@ -14435,7 +14434,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <f t="shared" si="5"/>
         <v>43344</v>
@@ -14462,7 +14461,7 @@
         <v>42996</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <f t="shared" si="5"/>
         <v>43374</v>
@@ -14489,7 +14488,7 @@
         <v>43037</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <f t="shared" si="5"/>
         <v>43405</v>
@@ -14510,7 +14509,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <f>EDATE(A459,1)</f>
         <v>43435</v>
@@ -14537,7 +14536,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>66</v>
@@ -14559,7 +14558,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>91</v>
@@ -14581,7 +14580,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>151</v>
@@ -14601,7 +14600,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="47" t="s">
         <v>208</v>
       </c>
@@ -14619,7 +14618,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <f>EDATE(A460,1)</f>
         <v>43466</v>
@@ -14640,7 +14639,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <f t="shared" si="5"/>
         <v>43497</v>
@@ -14667,7 +14666,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <f t="shared" si="5"/>
         <v>43525</v>
@@ -14688,7 +14687,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <f t="shared" si="5"/>
         <v>43556</v>
@@ -14709,7 +14708,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <f t="shared" si="5"/>
         <v>43586</v>
@@ -14736,7 +14735,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <f t="shared" si="5"/>
         <v>43617</v>
@@ -14763,7 +14762,7 @@
         <v>43635</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <f t="shared" si="5"/>
         <v>43647</v>
@@ -14784,7 +14783,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <f t="shared" si="5"/>
         <v>43678</v>
@@ -14805,7 +14804,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <f t="shared" si="5"/>
         <v>43709</v>
@@ -14826,7 +14825,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <f t="shared" si="5"/>
         <v>43739</v>
@@ -14847,7 +14846,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <f t="shared" si="5"/>
         <v>43770</v>
@@ -14868,7 +14867,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <f t="shared" si="5"/>
         <v>43800</v>
@@ -14895,7 +14894,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>66</v>
@@ -14917,7 +14916,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="47" t="s">
         <v>209</v>
       </c>
@@ -14935,7 +14934,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <f>EDATE(A476,1)</f>
         <v>43831</v>
@@ -14960,7 +14959,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>336</v>
@@ -14980,7 +14979,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <f>EDATE(A479,1)</f>
         <v>43862</v>
@@ -15001,7 +15000,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <f t="shared" si="5"/>
         <v>43891</v>
@@ -15022,7 +15021,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <f t="shared" si="5"/>
         <v>43922</v>
@@ -15043,7 +15042,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <f t="shared" si="5"/>
         <v>43952</v>
@@ -15064,7 +15063,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <f t="shared" si="5"/>
         <v>43983</v>
@@ -15085,7 +15084,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <f t="shared" si="5"/>
         <v>44013</v>
@@ -15106,7 +15105,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <f t="shared" si="5"/>
         <v>44044</v>
@@ -15127,7 +15126,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <f t="shared" si="5"/>
         <v>44075</v>
@@ -15154,7 +15153,7 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <f t="shared" si="5"/>
         <v>44105</v>
@@ -15175,7 +15174,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <f t="shared" si="5"/>
         <v>44136</v>
@@ -15196,7 +15195,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <f t="shared" si="5"/>
         <v>44166</v>
@@ -15223,7 +15222,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="47" t="s">
         <v>210</v>
       </c>
@@ -15241,7 +15240,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <f>EDATE(A491,1)</f>
         <v>44197</v>
@@ -15262,7 +15261,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <f t="shared" si="5"/>
         <v>44228</v>
@@ -15287,7 +15286,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <f t="shared" si="5"/>
         <v>44256</v>
@@ -15308,7 +15307,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <f t="shared" si="5"/>
         <v>44287</v>
@@ -15329,7 +15328,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <f t="shared" si="5"/>
         <v>44317</v>
@@ -15350,7 +15349,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <f t="shared" si="5"/>
         <v>44348</v>
@@ -15371,7 +15370,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <f t="shared" si="5"/>
         <v>44378</v>
@@ -15392,7 +15391,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <f t="shared" si="5"/>
         <v>44409</v>
@@ -15413,7 +15412,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <f t="shared" si="5"/>
         <v>44440</v>
@@ -15434,7 +15433,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <f t="shared" si="5"/>
         <v>44470</v>
@@ -15455,7 +15454,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <f t="shared" si="5"/>
         <v>44501</v>
@@ -15476,7 +15475,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <f t="shared" si="5"/>
         <v>44531</v>
@@ -15503,7 +15502,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>50</v>
@@ -15525,7 +15524,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="47" t="s">
         <v>211</v>
       </c>
@@ -15543,7 +15542,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <f>EDATE(A504,1)</f>
         <v>44562</v>
@@ -15564,7 +15563,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <f t="shared" si="5"/>
         <v>44593</v>
@@ -15585,7 +15584,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <f t="shared" si="5"/>
         <v>44621</v>
@@ -15606,7 +15605,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <f t="shared" ref="A510:A513" si="6">EDATE(A509,1)</f>
         <v>44652</v>
@@ -15627,7 +15626,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <f t="shared" si="6"/>
         <v>44682</v>
@@ -15652,7 +15651,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <f t="shared" si="6"/>
         <v>44713</v>
@@ -15673,7 +15672,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <f t="shared" si="6"/>
         <v>44743</v>
@@ -15698,7 +15697,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>44774</v>
       </c>
@@ -15718,7 +15717,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>44805</v>
       </c>
@@ -15744,7 +15743,7 @@
         <v>44825</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>44835</v>
       </c>
@@ -15770,7 +15769,7 @@
         <v>44830</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <v>44866</v>
       </c>
@@ -15796,7 +15795,7 @@
         <v>44886</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <v>44896</v>
       </c>
@@ -15822,7 +15821,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="47" t="s">
         <v>341</v>
       </c>
@@ -15840,7 +15839,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>44927</v>
       </c>
@@ -15860,7 +15859,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <v>44958</v>
       </c>
@@ -15886,7 +15885,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40"/>
       <c r="B522" s="20" t="s">
         <v>50</v>
@@ -15908,7 +15907,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>87</v>
@@ -15928,47 +15927,53 @@
         <v>44963</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>44986</v>
       </c>
       <c r="B524" s="20"/>
-      <c r="C524" s="13"/>
+      <c r="C524" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D524" s="39"/>
       <c r="E524" s="9"/>
       <c r="F524" s="20"/>
-      <c r="G524" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G524" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H524" s="39"/>
       <c r="I524" s="9"/>
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>45017</v>
       </c>
       <c r="B525" s="20"/>
-      <c r="C525" s="13"/>
+      <c r="C525" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D525" s="39"/>
       <c r="E525" s="9"/>
       <c r="F525" s="20"/>
-      <c r="G525" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G525" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H525" s="39"/>
       <c r="I525" s="9"/>
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>45047</v>
       </c>
-      <c r="B526" s="20"/>
+      <c r="B526" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="C526" s="13"/>
       <c r="D526" s="39"/>
       <c r="E526" s="9"/>
@@ -15980,9 +15985,11 @@
       <c r="H526" s="39"/>
       <c r="I526" s="9"/>
       <c r="J526" s="11"/>
-      <c r="K526" s="20"/>
-    </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K526" s="48">
+        <v>45064</v>
+      </c>
+    </row>
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <v>45078</v>
       </c>
@@ -16000,7 +16007,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>45108</v>
       </c>
@@ -16018,7 +16025,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>45139</v>
       </c>
@@ -16036,7 +16043,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>45170</v>
       </c>
@@ -16054,7 +16061,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>45200</v>
       </c>
@@ -16072,7 +16079,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>45231</v>
       </c>
@@ -16090,7 +16097,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>45261</v>
       </c>
@@ -16108,7 +16115,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>45292</v>
       </c>
@@ -16126,7 +16133,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>45323</v>
       </c>
@@ -16144,7 +16151,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>45352</v>
       </c>
@@ -16162,7 +16169,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>45383</v>
       </c>
@@ -16180,7 +16187,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>45413</v>
       </c>
@@ -16198,7 +16205,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>45444</v>
       </c>
@@ -16216,7 +16223,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <v>45474</v>
       </c>
@@ -16234,7 +16241,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <v>45505</v>
       </c>
@@ -16252,7 +16259,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>45536</v>
       </c>
@@ -16270,7 +16277,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <v>45566</v>
       </c>
@@ -16288,7 +16295,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>45597</v>
       </c>
@@ -16306,7 +16313,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>45627</v>
       </c>
@@ -16324,7 +16331,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>45658</v>
       </c>
@@ -16342,7 +16349,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>45689</v>
       </c>
@@ -16360,7 +16367,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>45717</v>
       </c>
@@ -16378,7 +16385,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>45748</v>
       </c>
@@ -16396,7 +16403,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>45778</v>
       </c>
@@ -16414,7 +16421,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>45809</v>
       </c>
@@ -16432,7 +16439,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>45839</v>
       </c>
@@ -16450,7 +16457,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <v>45870</v>
       </c>
@@ -16468,7 +16475,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40"/>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -16484,7 +16491,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40"/>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -16500,7 +16507,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40"/>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -16516,7 +16523,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="51"/>
       <c r="B557" s="15"/>
       <c r="C557" s="41"/>
@@ -16547,10 +16554,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16573,7 +16580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -16581,21 +16588,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -16608,7 +16615,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -16637,7 +16644,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>32.087000000000003</v>
       </c>
@@ -16665,17 +16672,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -16696,7 +16703,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -16723,7 +16730,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -16749,7 +16756,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -16775,7 +16782,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -16801,7 +16808,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -16827,7 +16834,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -16853,7 +16860,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -16879,7 +16886,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -16905,7 +16912,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -16925,7 +16932,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -16945,7 +16952,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -16965,7 +16972,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -16986,7 +16993,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -17007,7 +17014,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -17028,7 +17035,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -17049,7 +17056,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -17070,7 +17077,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -17091,7 +17098,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -17112,7 +17119,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -17133,7 +17140,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -17154,7 +17161,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -17175,7 +17182,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -17196,7 +17203,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -17217,7 +17224,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -17238,7 +17245,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -17259,7 +17266,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -17280,7 +17287,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -17301,7 +17308,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -17322,7 +17329,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -17343,7 +17350,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -17364,7 +17371,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -17385,7 +17392,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -17394,7 +17401,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -17403,7 +17410,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -17412,7 +17419,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -17421,7 +17428,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -17430,7 +17437,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -17439,7 +17446,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -17448,7 +17455,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -17457,7 +17464,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -17466,7 +17473,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -17475,7 +17482,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -17484,7 +17491,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -17493,7 +17500,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -17502,7 +17509,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -17511,7 +17518,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -17520,7 +17527,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -17529,7 +17536,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -17538,7 +17545,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -17547,7 +17554,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -17556,7 +17563,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -17565,7 +17572,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -17574,7 +17581,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -17583,7 +17590,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -17592,7 +17599,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -17601,7 +17608,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -17610,7 +17617,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -17619,7 +17626,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -17628,7 +17635,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -17637,7 +17644,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -17646,7 +17653,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/MATIENZO, NORMITA.xlsx
+++ b/REGULAR/MATIENZO, NORMITA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="345">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1066,6 +1066,9 @@
   </si>
   <si>
     <t>2/13,14/2023</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
@@ -3479,7 +3482,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K557" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K558" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3855,12 +3858,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K557"/>
+  <dimension ref="A2:K558"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <pane ySplit="3390" topLeftCell="A513" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4140" topLeftCell="A520" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="D531" sqref="D531"/>
+      <selection pane="bottomLeft" activeCell="E528" sqref="E528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4023,7 +4026,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>131.84599999999995</v>
+        <v>133.09599999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4033,7 +4036,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>155.375</v>
+        <v>155.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4196,7 +4199,7 @@
       </c>
       <c r="E16" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>131.84599999999995</v>
+        <v>133.09599999999995</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="13" t="str">
@@ -4206,7 +4209,7 @@
       <c r="H16" s="39"/>
       <c r="I16" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>155.375</v>
+        <v>155.625</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
@@ -8827,7 +8830,7 @@
       <c r="H214" s="39"/>
       <c r="I214" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>155.375</v>
+        <v>155.625</v>
       </c>
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
@@ -15974,13 +15977,15 @@
       <c r="B526" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C526" s="13"/>
+      <c r="C526" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D526" s="39"/>
       <c r="E526" s="9"/>
       <c r="F526" s="20"/>
-      <c r="G526" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G526" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H526" s="39"/>
       <c r="I526" s="9"/>
@@ -15990,10 +15995,10 @@
       </c>
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A527" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B527" s="20"/>
+      <c r="A527" s="40"/>
+      <c r="B527" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C527" s="13"/>
       <c r="D527" s="39"/>
       <c r="E527" s="9"/>
@@ -16002,14 +16007,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H527" s="39"/>
+      <c r="H527" s="39">
+        <v>1</v>
+      </c>
       <c r="I527" s="9"/>
       <c r="J527" s="11"/>
-      <c r="K527" s="20"/>
+      <c r="K527" s="48">
+        <v>45072</v>
+      </c>
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -16027,7 +16036,7 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -16045,7 +16054,7 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -16063,7 +16072,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -16081,7 +16090,7 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -16099,7 +16108,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -16117,7 +16126,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -16135,7 +16144,7 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -16153,7 +16162,7 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -16171,7 +16180,7 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -16189,7 +16198,7 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -16207,7 +16216,7 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -16225,7 +16234,7 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -16243,7 +16252,7 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -16261,7 +16270,7 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -16279,7 +16288,7 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -16297,7 +16306,7 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -16315,7 +16324,7 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -16333,7 +16342,7 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -16351,7 +16360,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -16369,7 +16378,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -16387,7 +16396,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -16405,7 +16414,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -16423,7 +16432,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -16441,7 +16450,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -16459,7 +16468,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -16476,7 +16485,9 @@
       <c r="K553" s="20"/>
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A554" s="40"/>
+      <c r="A554" s="40">
+        <v>45870</v>
+      </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
       <c r="D554" s="39"/>
@@ -16524,20 +16535,36 @@
       <c r="K556" s="20"/>
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A557" s="51"/>
-      <c r="B557" s="15"/>
-      <c r="C557" s="41"/>
-      <c r="D557" s="42"/>
+      <c r="A557" s="40"/>
+      <c r="B557" s="20"/>
+      <c r="C557" s="13"/>
+      <c r="D557" s="39"/>
       <c r="E557" s="9"/>
-      <c r="F557" s="15"/>
-      <c r="G557" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H557" s="42"/>
+      <c r="F557" s="20"/>
+      <c r="G557" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H557" s="39"/>
       <c r="I557" s="9"/>
-      <c r="J557" s="12"/>
-      <c r="K557" s="15"/>
+      <c r="J557" s="11"/>
+      <c r="K557" s="20"/>
+    </row>
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A558" s="51"/>
+      <c r="B558" s="15"/>
+      <c r="C558" s="41"/>
+      <c r="D558" s="42"/>
+      <c r="E558" s="9"/>
+      <c r="F558" s="15"/>
+      <c r="G558" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H558" s="42"/>
+      <c r="I558" s="9"/>
+      <c r="J558" s="12"/>
+      <c r="K558" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16584,8 +16611,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16683,6 +16710,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>344</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -16704,6 +16734,10 @@
       <c r="L6" s="63"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>288.72099999999995</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>

--- a/REGULAR/MATIENZO, NORMITA.xlsx
+++ b/REGULAR/MATIENZO, NORMITA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="345">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1947,7 +1947,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1990,7 +1990,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2054,7 +2054,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2114,7 +2114,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2180,7 +2180,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2243,7 +2243,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2341,7 +2341,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2400,7 +2400,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2465,7 +2465,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2508,7 +2508,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2583,7 +2583,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2769,7 +2769,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2835,7 +2835,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2893,7 +2893,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2959,7 +2959,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3015,7 +3015,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3090,7 +3090,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3133,7 +3133,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3199,7 +3199,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3255,7 +3255,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3353,7 +3353,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3416,7 +3416,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3861,9 +3861,9 @@
   <dimension ref="A2:K558"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4140" topLeftCell="A520" activePane="bottomLeft"/>
+      <pane ySplit="4140" topLeftCell="A523" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="E528" sqref="E528"/>
+      <selection pane="bottomLeft" activeCell="J529" sqref="J529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4026,7 +4026,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>133.09599999999995</v>
+        <v>134.34599999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4036,7 +4036,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>155.625</v>
+        <v>156.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4199,7 +4199,7 @@
       </c>
       <c r="E16" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>133.09599999999995</v>
+        <v>134.34599999999995</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="13" t="str">
@@ -4209,7 +4209,7 @@
       <c r="H16" s="39"/>
       <c r="I16" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>155.625</v>
+        <v>156.875</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
@@ -8830,7 +8830,7 @@
       <c r="H214" s="39"/>
       <c r="I214" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>155.625</v>
+        <v>156.875</v>
       </c>
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
@@ -16021,13 +16021,15 @@
         <v>45078</v>
       </c>
       <c r="B528" s="20"/>
-      <c r="C528" s="13"/>
+      <c r="C528" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D528" s="39"/>
       <c r="E528" s="9"/>
       <c r="F528" s="20"/>
-      <c r="G528" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G528" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H528" s="39"/>
       <c r="I528" s="9"/>
@@ -16038,7 +16040,9 @@
       <c r="A529" s="40">
         <v>45108</v>
       </c>
-      <c r="B529" s="20"/>
+      <c r="B529" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="C529" s="13"/>
       <c r="D529" s="39"/>
       <c r="E529" s="9"/>
@@ -16050,7 +16054,9 @@
       <c r="H529" s="39"/>
       <c r="I529" s="9"/>
       <c r="J529" s="11"/>
-      <c r="K529" s="20"/>
+      <c r="K529" s="48">
+        <v>45117</v>
+      </c>
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
@@ -16736,7 +16742,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>288.72099999999995</v>
+        <v>291.22099999999995</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
